--- a/digitizedData/data33kVsubStation-August-4-2023.xlsx
+++ b/digitizedData/data33kVsubStation-August-4-2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susan/Documents/POWER GRID/HW2/digitizedData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE407CC-3370-C545-ADA5-4042A63E102C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839C7667-40ED-7D47-A8BA-E9F5223C7C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>44755</v>
+        <v>45142</v>
       </c>
       <c r="I5" s="1">
         <v>4.5</v>
@@ -432,7 +432,7 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>44755.041666666701</v>
+        <v>45142.041666666664</v>
       </c>
       <c r="I6" s="1">
         <v>4.5</v>
@@ -443,7 +443,7 @@
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>44755.083333333299</v>
+        <v>45142.083333333336</v>
       </c>
       <c r="I7" s="1">
         <v>4.5</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>44755.125</v>
+        <v>45142.125</v>
       </c>
       <c r="I8" s="1">
         <v>4.5</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>44755.166666666701</v>
+        <v>45142.166666666664</v>
       </c>
       <c r="I9" s="1">
         <v>3.5</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>44755.208333333299</v>
+        <v>45142.208333333336</v>
       </c>
       <c r="I10" s="1">
         <v>3.5</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>44755.25</v>
+        <v>45142.25</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -508,7 +508,7 @@
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
-        <v>44755.291666666701</v>
+        <v>45142.291666666664</v>
       </c>
       <c r="I12" s="1">
         <v>4.5</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>44755.333333333401</v>
+        <v>45142.333333333336</v>
       </c>
       <c r="I13" s="1">
         <v>4.9000000000000004</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
-        <v>44755.375</v>
+        <v>45142.375</v>
       </c>
       <c r="I14" s="1">
         <v>5</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
-        <v>44755.416666666701</v>
+        <v>45142.416666666664</v>
       </c>
       <c r="I15" s="1">
         <v>5.75</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
-        <v>44755.458333333401</v>
+        <v>45142.458333333336</v>
       </c>
       <c r="I16" s="1">
         <v>4.7</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
-        <v>44755.5</v>
+        <v>45142.5</v>
       </c>
       <c r="I17" s="1">
         <v>5.8</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
-        <v>44755.541666666701</v>
+        <v>45142.541666666664</v>
       </c>
       <c r="I18" s="1">
         <v>5.6</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
-        <v>44755.583333333401</v>
+        <v>45142.583333333336</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -606,7 +606,7 @@
     </row>
     <row r="20" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
-        <v>44755.625</v>
+        <v>45142.625</v>
       </c>
       <c r="I20" s="1">
         <v>6.1</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
-        <v>44755.666666666701</v>
+        <v>45142.666666666664</v>
       </c>
       <c r="I21" s="1">
         <v>6.4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
-        <v>44755.708333333401</v>
+        <v>45142.708333333336</v>
       </c>
       <c r="I22" s="1">
         <v>6.2</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
-        <v>44755.750000000102</v>
+        <v>45142.75</v>
       </c>
       <c r="I23" s="1">
         <v>6.2</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
-        <v>44755.791666666701</v>
+        <v>45142.791666666664</v>
       </c>
       <c r="I24" s="1">
         <v>6.2</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
-        <v>44755.833333333401</v>
+        <v>45142.833333333336</v>
       </c>
       <c r="I25" s="1">
         <v>6</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
-        <v>44755.875000000102</v>
+        <v>45142.875</v>
       </c>
       <c r="I26" s="1">
         <v>6</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>44755.916666666701</v>
+        <v>45142.916666666664</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -704,7 +704,7 @@
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>44755.958333333401</v>
+        <v>45142.958333333336</v>
       </c>
       <c r="I28" s="1">
         <v>5.5</v>
